--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CE6E8-D82E-4CFD-88B8-865B58655150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE1092E-B961-43B7-A17F-F294D23574EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Product</t>
   </si>
@@ -83,37 +96,6 @@
     <t>ROBU</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R135848</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>RC0603JR-072KL Thick Film 0603 2K Ohm reskTtrr</t>
-    </r>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>0.33uF Capacitor SMD:C 0603</t>
-    </r>
-  </si>
-  <si>
     <t>AMS1117-3.3</t>
   </si>
   <si>
@@ -131,125 +113,154 @@
     </r>
   </si>
   <si>
-    <t>USB4105GFA</t>
-  </si>
-  <si>
-    <t>R248958</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Buy USB4745-03-A Electrical Connectors at Robu.in</t>
-    </r>
-  </si>
-  <si>
     <t>Crystal</t>
   </si>
   <si>
-    <t>R148381</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>ABM7-8.000MHZ-D2Y-T-Abracon LLC-CRYSTAL 8.0000MHZ 18PF SMD - Robu.in | Indian Online Store | RC Hobby | Robotics</t>
-    </r>
-  </si>
-  <si>
     <t>Ferrite bead</t>
   </si>
   <si>
-    <t>R136792</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Buy BLM15AG221SN1DFerrite Beads at Best Price | Robu.in</t>
-    </r>
-  </si>
-  <si>
     <t>Tactile switch</t>
   </si>
   <si>
-    <t>R196163</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Buy TS-KG87S-AT25F Electronic Switches Online in India | Robu.in</t>
-    </r>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Buy 0603 Surface mount LED Orange Online at Best Price | Robu.in</t>
-    </r>
-  </si>
-  <si>
     <t>Connector 1x04</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Buy 1x40 Berg Strip Male Connector - 10pcs Online at Robu.in</t>
-    </r>
-  </si>
-  <si>
     <t>Connector 1x07</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Buy 1x40 Berg Strip Male Connector - 10pcs Online at Robu.in</t>
-    </r>
+    <t>Capacitor 10uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitor 1uF </t>
+  </si>
+  <si>
+    <t>Capacitor 22uF</t>
+  </si>
+  <si>
+    <t>Capacitor 22pF</t>
+  </si>
+  <si>
+    <t>Capacitor 100nF</t>
+  </si>
+  <si>
+    <t>Resistor 1.5k</t>
+  </si>
+  <si>
+    <t>Resistor 10k</t>
+  </si>
+  <si>
+    <t>Resistor 4.7k</t>
+  </si>
+  <si>
+    <t>Resistor 5.1k</t>
+  </si>
+  <si>
+    <t>R143611</t>
+  </si>
+  <si>
+    <t>ST2103SD1085</t>
+  </si>
+  <si>
+    <t>R138662</t>
+  </si>
+  <si>
+    <t>R139343</t>
+  </si>
+  <si>
+    <t>R138075</t>
+  </si>
+  <si>
+    <t>USB C</t>
+  </si>
+  <si>
+    <t>ST2103SD2474</t>
+  </si>
+  <si>
+    <t>R112448</t>
+  </si>
+  <si>
+    <t> R132503</t>
+  </si>
+  <si>
+    <t>R191776</t>
+  </si>
+  <si>
+    <t>ST2136CO7400</t>
+  </si>
+  <si>
+    <t>ST2136CO8038</t>
+  </si>
+  <si>
+    <t>ST2136CO6063</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/c0603c106m9pactu-kemet-cap-smd-mlcc-10-%c2%b5f-6-3-v-0603-pack-of-1/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/0603b104j500nt-fh-50v-100nf-x7r%c2%b15-0603-multilayer-ceramic-capacitors-mlcc-smd-smt-rohs/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/1uf-1000nf-50v-capacitor-0603-smd-package-pack-of-20/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/lmk107bbj226ma-t-taiyo-yuden-cap-smd-mlcc-22uf-10v-0603-pack-of-1/</t>
+  </si>
+  <si>
+    <t>https://sharvielectronics.com/product/22pf-50v-%c2%b110-tolerance-capacitor-cc0603krnpo9bb220-0603-smd-package/</t>
+  </si>
+  <si>
+    <t>https://sharvielectronics.com/product/mup-u23010-02-usb-type-c-receptacle-vertical-mount-usb-c-female-connector-16pin-6-5h/</t>
+  </si>
+  <si>
+    <t>https://sharvielectronics.com/product/7050-5032-3225-smd-crystal-pcb-adapter/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/blm18pg121sn1d-murata-ferrite-bead-0603-1608-metric-120-ohm-2-a-blm18p-0-05-ohm-%c2%b1-25/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/kfc-003b-smd-tact-switch-2-pin4-2x6-1x2-5/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/sml-lx0603gw-tr-lumex-sml-lx0603gw-tr-led-quasarbrite-green-smd-0603-20-ma-2-2-v-565-nm/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/rc0603fr-071k5l-yageo-res-thick-film-0603-1-5k-ohm-1-0-1w1-10w-%c2%b1100ppm-c-pad-smd-t-r/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/rc0603jr-0710kl-yageo-smd-chip-resistor/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/rt0603brd074k7l-yageo-res-thin-film-0603-4-7k-ohm-0-1-0-1w1-10w-%c2%b125ppm-c-pad-smd-t-r/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/ac0603jr-075k1l-yageo-res-thick-film-0603-5-1k-ohm-5-0-1w1-10w-%c2%b1100ppm-c-pad-smd-t-r-automotive-aec-q200/</t>
+  </si>
+  <si>
+    <t>https://sharvielectronics.com/product/4x1-4pin-male-square-straight-header-connector-11mm-height-2-54mm-pitch/</t>
+  </si>
+  <si>
+    <t>https://sharvielectronics.com/product/7x1-7pin-male-square-straight-header-connector-11mm-height-2-54mm-pitch/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,8 +286,49 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333E48"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +341,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE2D5"/>
+        <bgColor rgb="FFFBE2D5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -299,43 +357,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF535FC1"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF535FC1"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF535FC1"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF535FC1"/>
-        </bottom>
-      </border>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -361,10 +440,26 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF535FC1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF535FC1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF535FC1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF535FC1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -382,13 +477,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:H14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:H21">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SKU"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SKU" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Quantity"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unit price"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Amount"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Amount">
+      <calculatedColumnFormula>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Link"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Vendor"/>
   </tableColumns>
@@ -597,12 +694,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:H14"/>
+  <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" style="16" customWidth="1"/>
     <col min="6" max="6" width="17.265625" customWidth="1"/>
     <col min="7" max="7" width="15.265625" customWidth="1"/>
     <col min="8" max="8" width="15.46484375" customWidth="1"/>
@@ -612,11 +713,12 @@
     <col min="12" max="12" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -635,11 +737,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2">
@@ -649,20 +752,21 @@
         <v>118.75</v>
       </c>
       <c r="F3" s="2">
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
         <v>118.75</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="22.5" customHeight="1">
+    <row r="4" spans="1:8" ht="22.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2">
@@ -672,264 +776,436 @@
         <v>166</v>
       </c>
       <c r="F4" s="2">
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
         <v>166</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="22.5" customHeight="1">
+    <row r="5" spans="1:8" ht="22.5" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>0.1</v>
       </c>
       <c r="F5" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="22.5" customHeight="1">
+    <row r="6" spans="1:8" ht="22.5" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1415727</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1872764</v>
       </c>
       <c r="D6" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>0.7</v>
+        <v>0.13</v>
       </c>
       <c r="F6" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>0.26</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="22.5" customHeight="1">
+    <row r="7" spans="1:8" ht="22.5" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>25</v>
+        <v>1.54</v>
       </c>
       <c r="F7" s="2">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>22</v>
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>3.08</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="22.5" customHeight="1">
+    <row r="8" spans="1:8" ht="22.5" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>209</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F8" s="2">
-        <v>209</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>25</v>
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="22.5" customHeight="1">
+    <row r="9" spans="1:8" ht="22.5" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1415727</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.0900000000000001</v>
       </c>
       <c r="F9" s="2">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>3.2700000000000005</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="22.5" customHeight="1">
+    <row r="10" spans="1:8" ht="22.5" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1544925</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="2" t="s">
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>22</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="22.5" customHeight="1">
+    <row r="11" spans="1:8" ht="22.5" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1545192</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2">
-        <v>2.2200000000000002</v>
+      <c r="E11" s="9">
+        <v>17</v>
       </c>
       <c r="F11" s="2">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
         <v>34</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="22.5" customHeight="1">
+    <row r="12" spans="1:8" ht="22.5" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4">
-        <v>827881</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2">
-        <v>0.97</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>36</v>
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="22.5" customHeight="1">
+    <row r="13" spans="1:8" ht="22.5" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4">
-        <v>470829</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>8</v>
+        <v>0.74</v>
       </c>
       <c r="F13" s="2">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>38</v>
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>1.48</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="22.5" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.5" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4">
-        <v>470829</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
-        <v>8</v>
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>25</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:8" ht="22.5" customHeight="1">
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>28.75</v>
+      </c>
+      <c r="F15" s="2">
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>28.75</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22.5" customHeight="1">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="F16" s="2">
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>12.75</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="22.5" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="F17" s="2">
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>1.02</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="22.5" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F18" s="2">
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>3.6</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="22.5" customHeight="1">
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="F19" s="2">
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>0.97</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="22.5" customHeight="1">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2">
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>8</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="22.5" customHeight="1">
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2">
+        <f>Table1[[#This Row],[Unit price]]*Table1[[#This Row],[Quantity]]</f>
+        <v>8</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D3:F14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D3:D21 E12:E21 E3:E8 E10:F10 F3:F9 F11:F21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(D3),(NOT(OR(NOT(ISERROR(DATEVALUE(D3))), AND(ISNUMBER(D3), LEFT(CELL("format", D3))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{8FA7BA5D-98F2-400B-9B6D-FE1A337F2363}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{E0C2680C-01B6-46AC-B465-9B7803843913}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -941,7 +1217,7 @@
     <brk id="1" man="1"/>
   </colBreaks>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>